--- a/inputs-sequoia/healthy-places.xlsx
+++ b/inputs-sequoia/healthy-places.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/sequencing-analysis/sequoia/inputs-sequoia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/github/sequoia-dragen/inputs-sequoia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E35C3DB-438C-FA47-9D18-E89252754A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A38F854-2014-D741-B2C1-C2064CB1D4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1320" windowWidth="24320" windowHeight="16940" xr2:uid="{CC991ACE-637A-6C40-A7FC-2C6FCD9B954D}"/>
+    <workbookView xWindow="22280" yWindow="520" windowWidth="48840" windowHeight="18020" xr2:uid="{CC991ACE-637A-6C40-A7FC-2C6FCD9B954D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -177,6 +177,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -255,47 +261,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,8 +655,8 @@
   <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC23" sqref="AC23"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,7 +674,7 @@
     <col min="20" max="20" width="14.6640625" customWidth="1"/>
     <col min="21" max="21" width="15.33203125" customWidth="1"/>
     <col min="22" max="22" width="13.83203125" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
     <col min="25" max="25" width="14.83203125" customWidth="1"/>
     <col min="26" max="26" width="13.5" customWidth="1"/>
@@ -690,97 +706,97 @@
       <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="7" t="s">
         <v>33</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="7" t="s">
         <v>38</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AC1" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="9" t="s">
         <v>22</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -788,106 +804,106 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="15">
         <v>648354</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="17">
         <v>212616</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="10">
         <v>-0.28960730000000001</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="13">
         <v>0.34455755999999998</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="18">
         <v>-0.50877672500000004</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="19">
         <v>0.34606391270459802</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="20">
         <v>0.61976556687798801</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="19">
         <v>0.34249803613511298</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="18">
         <v>0.67405218215546803</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="21">
         <v>0.37878787878787801</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="17">
         <v>27358</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="21">
         <v>0.40781357099999999</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="18">
         <v>-0.33170854700000002</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="24">
         <v>0.36185243328100403</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="18">
         <v>0.18702117100000001</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="24">
         <v>0.416107383</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="20">
         <v>0.151645978408638</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="25">
         <v>0.3984375</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="20">
         <v>0.99063780999477602</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="26">
         <v>0.56644674835061204</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="18">
         <v>0.94100812899999997</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="25">
         <v>0.37474815299999997</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="18">
         <v>-0.705622851</v>
       </c>
-      <c r="Y2" s="17">
+      <c r="Y2" s="27">
         <v>0.11111111111111099</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="12">
         <v>896.14851825639596</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AA2" s="23">
         <v>5.5111820999999998E-2</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="12">
         <v>0.26581088098275302</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AC2" s="29">
         <v>0.54127725856697795</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="11">
         <v>0.91488049999999999</v>
       </c>
-      <c r="AE2" s="18">
+      <c r="AE2" s="30">
         <v>0.49153689900000003</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="11">
         <v>-0.14522865500000001</v>
       </c>
-      <c r="AG2" s="22">
+      <c r="AG2" s="31">
         <v>0.47600619195046401</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="16">
         <v>57.9</v>
       </c>
-      <c r="AI2" s="23">
+      <c r="AI2" s="33">
         <v>79.099999999999994</v>
       </c>
     </row>
@@ -895,106 +911,106 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="15">
         <v>680812</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="17">
         <v>72904</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="10">
         <v>-0.17508409999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>0.44087705999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="18">
         <v>-0.32677550500000002</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="19">
         <v>0.438815276695245</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="20">
         <v>0.61871811227877804</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="19">
         <v>0.33778476040848299</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="18">
         <v>0.71926439132132702</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="21">
         <v>0.57735247208931395</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="17">
         <v>28004</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="21">
         <v>0.42152159</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="18">
         <v>-0.181744343647431</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="24">
         <v>0.48037676609105101</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="18">
         <v>0.25100081800000001</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="24">
         <v>0.54026845599999995</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="20">
         <v>0.18082669363138401</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="25">
         <v>0.4453125</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="20">
         <v>0.98703352586071202</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="26">
         <v>0.39773798303487201</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="18">
         <v>0.94384878100000003</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="25">
         <v>0.38885157799999998</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="18">
         <v>-0.84786493200000002</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="28">
         <v>7.1205008E-2</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="11">
         <v>846.72721539999998</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="23">
         <v>8.3865814999999996E-2</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="12">
         <v>0.38698671918314798</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AC3" s="29">
         <v>0.62071651090342606</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="11">
         <v>0.92924001099999998</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AE3" s="30">
         <v>0.5788761</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="12">
         <v>0.14663661708533901</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="31">
         <v>0.60061919504643901</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="16">
         <v>55.2</v>
       </c>
-      <c r="AI3" s="23">
+      <c r="AI3" s="33">
         <v>73.099999999999994</v>
       </c>
     </row>
@@ -1002,106 +1018,106 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="15">
         <v>686328</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="17">
         <v>59710</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="10">
         <v>2.8125130000000002E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="13">
         <v>0.58183242000000002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="18">
         <v>-6.5827999999999998E-3</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="19">
         <v>0.57443491816056103</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="20">
         <v>0.68400465351138995</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="19">
         <v>0.45718774548310998</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="18">
         <v>0.74828843005772205</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="21">
         <v>0.73205741626794196</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="17">
         <v>32057</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="21">
         <v>0.544208362</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="18">
         <v>-9.0322840000000001E-2</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="24">
         <v>0.54788069073783296</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="18">
         <v>0.272911034</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="24">
         <v>0.58456375800000004</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="20">
         <v>0.110916947339222</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="25">
         <v>0.35546875</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="20">
         <v>0.97818032116551301</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="26">
         <v>0.161168708765315</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="18">
         <v>0.94374271300000001</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="25">
         <v>0.38750839500000001</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="20">
         <v>0.42082520081906299</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="27">
         <v>0.56651017214397403</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="12">
         <v>306.83609031564299</v>
       </c>
-      <c r="AA4" s="17">
+      <c r="AA4" s="22">
         <v>0.79712460063897705</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="11">
         <v>-0.11591865899999999</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AC4" s="29">
         <v>0.346573208722741</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="11">
         <v>0.89092131399999996</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AE4" s="30">
         <v>0.37169939099999999</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="12">
         <v>0.27791743481890602</v>
       </c>
-      <c r="AG4" s="22">
+      <c r="AG4" s="31">
         <v>0.64938080495355999</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="16">
         <v>56</v>
       </c>
-      <c r="AI4" s="23">
+      <c r="AI4" s="33">
         <v>75.3</v>
       </c>
     </row>
@@ -1109,106 +1125,106 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="15">
         <v>646898</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="17">
         <v>82662</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="10">
         <v>-0.65419190000000005</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="13">
         <v>0.14487079</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="18">
         <v>-1.266850713</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="19">
         <v>0.104442712392829</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="20">
         <v>0.44299805653315799</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="21">
         <v>9.1908877E-2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="18">
         <v>0.58900399496449796</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="21">
         <v>0.123604465709728</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="17">
         <v>20488</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="21">
         <v>0.220013708</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="18">
         <v>-0.24930161100000001</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="24">
         <v>0.41915227629513302</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="18">
         <v>0.16478579300000001</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="24">
         <v>0.37046979899999999</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="18">
         <v>-0.16494305300000001</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="25">
         <v>0.15156249999999999</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="20">
         <v>0.98526778953958805</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="26">
         <v>0.332704995287464</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="18">
         <v>0.915457042</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="25">
         <v>0.26662189400000003</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="18">
         <v>-0.49205969700000002</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="Y5" s="27">
         <v>0.17683881064162699</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="11">
         <v>575.5893863</v>
       </c>
-      <c r="AA5" s="17">
+      <c r="AA5" s="22">
         <v>0.31869009584664498</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="11">
         <v>-0.15657958599999999</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AC5" s="29">
         <v>0.33255451713395601</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="11">
         <v>0.888733149</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AE5" s="30">
         <v>0.35612728500000002</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="11">
         <v>-0.50035942</v>
       </c>
-      <c r="AG5" s="22">
+      <c r="AG5" s="31">
         <v>0.34597523219814202</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="16">
         <v>56.5</v>
       </c>
-      <c r="AI5" s="23">
+      <c r="AI5" s="33">
         <v>76.7</v>
       </c>
     </row>
@@ -1216,106 +1232,106 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="15">
         <v>681302</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="17">
         <v>7311</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6">
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="17">
         <v>6778</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="21">
         <v>5.4832079999999998E-3</v>
       </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6">
+      <c r="N6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="18">
         <v>0.70351758799999997</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="24">
         <v>0.95436241600000005</v>
       </c>
-      <c r="R6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6" t="s">
-        <v>26</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="V6">
+      <c r="R6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="18">
         <v>0.89419087100000005</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="25">
         <v>0.20886500999999999</v>
       </c>
-      <c r="X6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD6">
+      <c r="X6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD6" s="11">
         <v>0.96712843400000004</v>
       </c>
-      <c r="AE6" s="18">
+      <c r="AE6" s="30">
         <v>0.78808395399999998</v>
       </c>
-      <c r="AF6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG6" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI6" s="23" t="s">
+      <c r="AF6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI6" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1323,106 +1339,106 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="15">
         <v>644028</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="17">
         <v>38914</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="10">
         <v>-0.37562610000000002</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="13">
         <v>0.29757243999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="18">
         <v>-0.60964224099999997</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="19">
         <v>0.30943102104442699</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="20">
         <v>0.59305689647346704</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="19">
         <v>0.27415553809897802</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="18">
         <v>0.67300556100857201</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="21">
         <v>0.37639553429027101</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="17">
         <v>22880</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="21">
         <v>0.28649760099999999</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="18">
         <v>-0.49205263300000002</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="24">
         <v>0.25274725274725202</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="18">
         <v>0.104557156</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="24">
         <v>0.23355704699999999</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="20">
         <v>0.14410409180693101</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="25">
         <v>0.38593749999999999</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="20">
         <v>0.997958695858434</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="26">
         <v>0.91800188501413704</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="18">
         <v>0.91389069300000003</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="25">
         <v>0.26192075199999998</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="18">
         <v>-0.56164547499999995</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="27">
         <v>0.15805946791862199</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="12">
         <v>821.97640166561803</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="23">
         <v>9.5846644999999994E-2</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="11">
         <v>-6.3656641E-2</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AC7" s="29">
         <v>0.37305295950155698</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="11">
         <v>0.88132851199999995</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AE7" s="30">
         <v>0.32836831399999999</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="11">
         <v>-0.15816925900000001</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AG7" s="31">
         <v>0.469040247678018</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="16">
         <v>44.3</v>
       </c>
-      <c r="AI7" s="23">
+      <c r="AI7" s="33">
         <v>44.7</v>
       </c>
     </row>
@@ -1430,106 +1446,106 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="15">
         <v>618100</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="17">
         <v>68543</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="10">
         <v>0.19986597</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="13">
         <v>0.70634299</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="18">
         <v>-0.67367330400000003</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="21">
         <v>0.28448947800000002</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="20">
         <v>0.551688832661411</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="21">
         <v>0.19952867199999999</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="18">
         <v>0.63169322907902503</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="21">
         <v>0.22966507177033399</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="17">
         <v>38997</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="21">
         <v>0.68334475699999997</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="18">
         <v>0.79678875212471401</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="24">
         <v>0.92621664050235397</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="18">
         <v>0.73848261699999995</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="24">
         <v>0.96644295300000005</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="18">
         <v>-3.0606913999999999E-2</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="25">
         <v>0.23671875000000001</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="20">
         <v>0.991523349300936</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="26">
         <v>0.62111215834118705</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="18">
         <v>0.96354039800000002</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="25">
         <v>0.51108126300000001</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="20">
         <v>0.35482048194987598</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="27">
         <v>0.51408450704225295</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="12">
         <v>437.36349589593902</v>
       </c>
-      <c r="AA8" s="17">
+      <c r="AA8" s="22">
         <v>0.54632587859424897</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="12">
         <v>0.84541967206108304</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AC8" s="29">
         <v>0.86604361370716498</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="11">
         <v>0.95740273600000003</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AE8" s="30">
         <v>0.74542992600000002</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="12">
         <v>0.64674616383188099</v>
       </c>
-      <c r="AG8" s="22">
+      <c r="AG8" s="31">
         <v>0.81191950464396201</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="16">
         <v>61</v>
       </c>
-      <c r="AI8" s="23">
+      <c r="AI8" s="33">
         <v>85.4</v>
       </c>
     </row>
@@ -1537,106 +1553,106 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="15">
         <v>622846</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="17">
         <v>3272</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="10">
         <v>-0.1186305</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="13">
         <v>0.48551292000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="18">
         <v>-0.20578453299999999</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="19">
         <v>0.50038971161340595</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="20">
         <v>0.59381588193956403</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="19">
         <v>0.27808326787116999</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="18">
         <v>0.74608355100000001</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="21">
         <v>0.72089314194577303</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="17">
         <v>31282</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="21">
         <v>0.52296093200000004</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="18">
         <v>-0.22133460099999999</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="24">
         <v>0.43877551020408101</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="18">
         <v>0.22476379899999999</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="24">
         <v>0.494630872</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="18">
         <v>0.45047944699999998</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="25">
         <v>0.74296874999999996</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="18">
         <v>1</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="25">
         <v>1</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="18">
         <v>0.92065009600000003</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="25">
         <v>0.28878441900000001</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="18">
         <v>0.76182819000000002</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="28">
         <v>0.76917057899999997</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="11">
         <v>396.88858149999999</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="22">
         <v>0.62779552715654896</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="11">
         <v>3.0520927999999999E-2</v>
       </c>
-      <c r="AC9" s="20">
+      <c r="AC9" s="29">
         <v>0.41355140186915801</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="11">
         <v>0.88953828199999996</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AE9" s="30">
         <v>0.35951252500000003</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="11">
         <v>-0.14131970099999999</v>
       </c>
-      <c r="AG9" s="22">
+      <c r="AG9" s="31">
         <v>0.47910216718266202</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="16">
         <v>54.7</v>
       </c>
-      <c r="AI9" s="23">
+      <c r="AI9" s="33">
         <v>71.400000000000006</v>
       </c>
     </row>
@@ -1644,106 +1660,106 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="15">
         <v>686034</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="17">
         <v>7197</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="10">
         <v>0.19346733999999999</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="13">
         <v>0.70164448000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="18">
         <v>0.26935857699999999</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="19">
         <v>0.70927513639906403</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="20">
         <v>0.83229063769070299</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="19">
         <v>0.81461115475255297</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="18">
         <v>0.71495243223837701</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="21">
         <v>0.56140350877192902</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="17">
         <v>37179</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="21">
         <v>0.65113091199999995</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="18">
         <v>-3.2122124000000002E-2</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="24">
         <v>0.59026687598116101</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="18">
         <v>0.21228186399999999</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="24">
         <v>0.46979865799999998</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="20">
         <v>0.214049822999999</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="25">
         <v>0.4765625</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="20">
         <v>0.96785109983079498</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="25">
         <v>7.3515550999999998E-2</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="18">
         <v>0.90815006499999995</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="25">
         <v>0.24445936900000001</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="18">
         <v>0.51880270100000003</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="27">
         <v>0.63223787167449097</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="11">
         <v>475.98187469999999</v>
       </c>
-      <c r="AA10" s="17">
+      <c r="AA10" s="22">
         <v>0.47044728434504701</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="12">
         <v>0.416267943999999</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AC10" s="30">
         <v>0.63317756999999997</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="11">
         <v>0.92971389999999998</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AE10" s="30">
         <v>0.58226134100000004</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="11">
         <v>0.18516417099999999</v>
       </c>
-      <c r="AG10" s="22">
+      <c r="AG10" s="31">
         <v>0.61687306501547901</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="16">
         <v>51.4</v>
       </c>
-      <c r="AI10" s="23">
+      <c r="AI10" s="33">
         <v>62.4</v>
       </c>
     </row>
